--- a/City_to_Airport_Distance.xlsx
+++ b/City_to_Airport_Distance.xlsx
@@ -464,28 +464,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>42.33071574831921</v>
       </c>
       <c r="C2" t="n">
-        <v>4207.850919840727</v>
+        <v>4209.221126015122</v>
       </c>
       <c r="D2" t="n">
-        <v>715.649350394047</v>
+        <v>730.5302498263628</v>
       </c>
       <c r="E2" t="n">
-        <v>666.883840851499</v>
+        <v>625.9649771399626</v>
       </c>
       <c r="F2" t="n">
-        <v>2789.682921521997</v>
+        <v>2795.588906081835</v>
       </c>
       <c r="G2" t="n">
-        <v>69.8565539547814</v>
+        <v>27.53032338126078</v>
       </c>
       <c r="H2" t="n">
-        <v>45.40797260243581</v>
+        <v>28.50139517022826</v>
       </c>
       <c r="I2" t="n">
-        <v>6410.262566197389</v>
+        <v>6406.303821143313</v>
       </c>
     </row>
     <row r="3">
@@ -493,28 +493,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4207.850919840727</v>
+        <v>4200.729244089316</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>7.141505114306876</v>
       </c>
       <c r="D3" t="n">
-        <v>3530.485061731268</v>
+        <v>3523.343969326773</v>
       </c>
       <c r="E3" t="n">
-        <v>4430.992475420107</v>
+        <v>4424.042382758523</v>
       </c>
       <c r="F3" t="n">
-        <v>1458.824307377904</v>
+        <v>1451.736397524728</v>
       </c>
       <c r="G3" t="n">
-        <v>4210.943701878223</v>
+        <v>4203.832661449996</v>
       </c>
       <c r="H3" t="n">
-        <v>4236.745499883875</v>
+        <v>4229.628864248363</v>
       </c>
       <c r="I3" t="n">
-        <v>2275.879241612601</v>
+        <v>2282.835524632547</v>
       </c>
     </row>
     <row r="4">
@@ -522,28 +522,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>715.649350394047</v>
+        <v>705.1058802321743</v>
       </c>
       <c r="C4" t="n">
-        <v>3530.485061731268</v>
+        <v>3533.794885136063</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>22.54124530256808</v>
       </c>
       <c r="E4" t="n">
-        <v>1216.844567676845</v>
+        <v>1198.212139513162</v>
       </c>
       <c r="F4" t="n">
-        <v>2092.606671232964</v>
+        <v>2098.031429842543</v>
       </c>
       <c r="G4" t="n">
-        <v>741.9208243676592</v>
+        <v>729.6248127740581</v>
       </c>
       <c r="H4" t="n">
-        <v>754.0189608090136</v>
+        <v>742.80254029689</v>
       </c>
       <c r="I4" t="n">
-        <v>5763.976788901502</v>
+        <v>5764.885115916564</v>
       </c>
     </row>
     <row r="5">
@@ -551,28 +551,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>666.883840851499</v>
+        <v>675.5621944593825</v>
       </c>
       <c r="C5" t="n">
-        <v>4430.992475420107</v>
+        <v>4422.291858824107</v>
       </c>
       <c r="D5" t="n">
-        <v>1216.844567676845</v>
+        <v>1217.923311179681</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>15.64556551051398</v>
       </c>
       <c r="F5" t="n">
-        <v>3097.603934138792</v>
+        <v>3091.231278155338</v>
       </c>
       <c r="G5" t="n">
-        <v>599.2890100503129</v>
+        <v>607.6173871354035</v>
       </c>
       <c r="H5" t="n">
-        <v>625.4489583140597</v>
+        <v>634.5043081667496</v>
       </c>
       <c r="I5" t="n">
-        <v>6534.369985480705</v>
+        <v>6523.443427551874</v>
       </c>
     </row>
     <row r="6">
@@ -580,28 +580,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2789.682921521997</v>
+        <v>2805.658848322679</v>
       </c>
       <c r="C6" t="n">
-        <v>1458.824307377904</v>
+        <v>1440.943963597735</v>
       </c>
       <c r="D6" t="n">
-        <v>2092.606671232964</v>
+        <v>2109.170809120837</v>
       </c>
       <c r="E6" t="n">
-        <v>3097.603934138792</v>
+        <v>3111.352888269211</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>18.37750081585277</v>
       </c>
       <c r="G6" t="n">
-        <v>2800.374337844477</v>
+        <v>2816.113960501615</v>
       </c>
       <c r="H6" t="n">
-        <v>2822.141348465737</v>
+        <v>2838.010091456182</v>
       </c>
       <c r="I6" t="n">
-        <v>3729.541524483573</v>
+        <v>3711.41320520205</v>
       </c>
     </row>
     <row r="7">
@@ -609,28 +609,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>69.8565539547814</v>
+        <v>42.33071574831921</v>
       </c>
       <c r="C7" t="n">
-        <v>4210.943701878223</v>
+        <v>4209.221126015122</v>
       </c>
       <c r="D7" t="n">
-        <v>741.9208243676592</v>
+        <v>730.5302498263628</v>
       </c>
       <c r="E7" t="n">
-        <v>599.2890100503129</v>
+        <v>625.9649771399626</v>
       </c>
       <c r="F7" t="n">
-        <v>2800.374337844477</v>
+        <v>2795.588906081835</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>27.53032338126078</v>
       </c>
       <c r="H7" t="n">
-        <v>43.44420218889529</v>
+        <v>28.50139517022826</v>
       </c>
       <c r="I7" t="n">
-        <v>6404.46060992037</v>
+        <v>6406.303821143313</v>
       </c>
     </row>
     <row r="8">
@@ -638,28 +638,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>45.40797260243581</v>
+        <v>42.33071574831921</v>
       </c>
       <c r="C8" t="n">
-        <v>4236.745499883875</v>
+        <v>4209.221126015122</v>
       </c>
       <c r="D8" t="n">
-        <v>754.0189608090136</v>
+        <v>730.5302498263628</v>
       </c>
       <c r="E8" t="n">
-        <v>625.4489583140597</v>
+        <v>625.9649771399626</v>
       </c>
       <c r="F8" t="n">
-        <v>2822.141348465737</v>
+        <v>2795.588906081835</v>
       </c>
       <c r="G8" t="n">
-        <v>43.44420218889529</v>
+        <v>27.53032338126078</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>28.50139517022826</v>
       </c>
       <c r="I8" t="n">
-        <v>6434.546118738967</v>
+        <v>6406.303821143313</v>
       </c>
     </row>
     <row r="9">
@@ -667,28 +667,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>6410.262566197389</v>
+        <v>6419.614655312224</v>
       </c>
       <c r="C9" t="n">
-        <v>2275.879241612601</v>
+        <v>2276.953105953862</v>
       </c>
       <c r="D9" t="n">
-        <v>5763.976788901502</v>
+        <v>5771.065636151679</v>
       </c>
       <c r="E9" t="n">
-        <v>6534.369985480705</v>
+        <v>6548.275967369334</v>
       </c>
       <c r="F9" t="n">
-        <v>3729.541524483573</v>
+        <v>3732.19037848708</v>
       </c>
       <c r="G9" t="n">
-        <v>6404.46060992037</v>
+        <v>6414.307751661479</v>
       </c>
       <c r="H9" t="n">
-        <v>6434.546118738967</v>
+        <v>6444.170162557124</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>39.45577150811653</v>
       </c>
     </row>
   </sheetData>
